--- a/LaTex_Projects/Masterthes/Samples_Master_Global.xlsx
+++ b/LaTex_Projects/Masterthes/Samples_Master_Global.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="77">
   <si>
     <t>Sample</t>
   </si>
@@ -160,6 +160,9 @@
     <t>KRAS G12D @31,4%</t>
   </si>
   <si>
+    <t>I</t>
+  </si>
+  <si>
     <t>KRAS p.Gly13Asp @9,7%</t>
   </si>
   <si>
@@ -187,67 +190,58 @@
     <t>BRAF V600E @59,5%</t>
   </si>
   <si>
+    <t>CLL</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Del TP53 17p13.1 (84%)</t>
+  </si>
+  <si>
+    <t>TP53 p.Arg249Ser @71,6%</t>
+  </si>
+  <si>
+    <t>16_03_15</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Del TP53 17p13.1 (23%)</t>
+  </si>
+  <si>
+    <t>TP53 c.425delC @17,2% and p.Gly266Val @14,5%</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
-    <t>CLL</t>
-  </si>
-  <si>
-    <t>Blood</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Del TP53 17p13.1 (84%)</t>
-  </si>
-  <si>
-    <t>TP53 p.Arg249Ser @71,6%</t>
-  </si>
-  <si>
-    <t>16_03_15</t>
+    <t>NRAS p.Gly13Val </t>
+  </si>
+  <si>
+    <t>NRAS p.Gly13Val @6,6%</t>
+  </si>
+  <si>
+    <t>NRAS G13V @5%</t>
+  </si>
+  <si>
+    <t>none_found</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>BM</t>
-  </si>
-  <si>
-    <t>Del TP53 17p13.1 (23%)</t>
-  </si>
-  <si>
-    <t>TP53 c.425delC @17,2% and p.Gly266Val @14,5%</t>
+    <t>KRAS and NRAS(3) WT (Idylla)</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>NRAS p.Gly13Val </t>
-  </si>
-  <si>
-    <t>NRAS p.Gly13Val @6,6%</t>
-  </si>
-  <si>
-    <t>NRAS G13V @5%</t>
-  </si>
-  <si>
     <t>O</t>
-  </si>
-  <si>
-    <t>none_found</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>KRAS and NRAS(3) WT (Idylla)</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>BRAF p.Val600Glu @ 37,4%</t>
@@ -439,7 +433,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -800,7 +794,7 @@
         <v>15039121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -821,13 +815,13 @@
         <v>17</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N10" s="0"/>
     </row>
@@ -836,7 +830,7 @@
         <v>15039718</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -851,19 +845,19 @@
         <v>0.705</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N11" s="0"/>
     </row>
@@ -872,7 +866,7 @@
         <v>15051669</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -893,22 +887,19 @@
         <v>17</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>15056672</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>57</v>
@@ -941,14 +932,11 @@
       <c r="A14" s="1" t="n">
         <v>15060478</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>4.97</v>
@@ -957,13 +945,13 @@
         <v>59</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
@@ -976,7 +964,7 @@
         <v>15061857</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -991,19 +979,19 @@
         <v>0.13</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="N15" s="0"/>
     </row>
@@ -1011,9 +999,6 @@
       <c r="A16" s="1" t="n">
         <v>16004596</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
@@ -1031,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>62</v>
@@ -1042,7 +1027,7 @@
         <v>16009521</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -1055,13 +1040,13 @@
       </c>
       <c r="G17" s="0"/>
       <c r="H17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,7 +1054,7 @@
         <v>16012404</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
@@ -1082,13 +1067,13 @@
       </c>
       <c r="G18" s="0"/>
       <c r="H18" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,7 +1081,7 @@
         <v>16012453</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -1115,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,7 +1120,7 @@
         <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>78</v>
@@ -1153,7 +1138,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>50</v>
@@ -1180,7 +1165,7 @@
         <v>59</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,7 +1227,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>127</v>
